--- a/output.xlsx
+++ b/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,6 +412,24 @@
       <c r="C1" t="str">
         <v>ISBN</v>
       </c>
+      <c r="D1" t="str">
+        <v>Found</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Price</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Author</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Publisher</v>
+      </c>
+      <c r="H1" t="str">
+        <v>URL</v>
+      </c>
+      <c r="I1" t="str">
+        <v>In Stock</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -423,6 +441,24 @@
       <c r="C2">
         <v>9780062641540</v>
       </c>
+      <c r="D2" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Rs. 160</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v>https://www.snapdeal.com/product/the-subtle-art-of-not/682921518425</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Yes</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -434,6 +470,24 @@
       <c r="C3">
         <v>9781612680019</v>
       </c>
+      <c r="D3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Rs. 161</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v>https://www.snapdeal.com/product/rich-dad-poor-dad-english/673494464071</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Yes</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -445,6 +499,24 @@
       <c r="C4">
         <v>9781786330895</v>
       </c>
+      <c r="D4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Rs. 149</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>https://www.snapdeal.com/product/ikigai-english-hardcover-garcia-hector/655999809238</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Yes</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -456,6 +528,24 @@
       <c r="C5">
         <v>9781847941831</v>
       </c>
+      <c r="D5" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Rs. 1054</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v>https://www.snapdeal.com/product/-combo-of-9-atomic/655885700400</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Yes</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -467,10 +557,28 @@
       <c r="C6">
         <v>9780753555194</v>
       </c>
+      <c r="D6" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Rs. 175</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v>https://www.snapdeal.com/product/zero-to-one-notes-on/637828134948</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Yes</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -503,7 +503,7 @@
         <v>Yes</v>
       </c>
       <c r="E4" t="str">
-        <v>Rs. 149</v>
+        <v>Rs. 154</v>
       </c>
       <c r="F4" t="str">
         <v/>
@@ -512,7 +512,7 @@
         <v/>
       </c>
       <c r="H4" t="str">
-        <v>https://www.snapdeal.com/product/ikigai-english-hardcover-garcia-hector/655999809238</v>
+        <v>https://www.snapdeal.com/product/ikigai/676651730612</v>
       </c>
       <c r="I4" t="str">
         <v>Yes</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -445,16 +445,13 @@
         <v>Yes</v>
       </c>
       <c r="E2" t="str">
-        <v>Rs. 160</v>
+        <v>Rs. 170</v>
       </c>
       <c r="F2" t="str">
-        <v/>
-      </c>
-      <c r="G2" t="str">
-        <v/>
+        <v>by Mark Manson</v>
       </c>
       <c r="H2" t="str">
-        <v>https://www.snapdeal.com/product/the-subtle-art-of-not/682921518425</v>
+        <v>https://www.snapdeal.com/product/the-subtle-art-of-not/673256894166</v>
       </c>
       <c r="I2" t="str">
         <v>Yes</v>
@@ -477,10 +474,7 @@
         <v>Rs. 161</v>
       </c>
       <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
+        <v>by Robert T. Kiyosaki</v>
       </c>
       <c r="H3" t="str">
         <v>https://www.snapdeal.com/product/rich-dad-poor-dad-english/673494464071</v>
@@ -503,16 +497,13 @@
         <v>Yes</v>
       </c>
       <c r="E4" t="str">
-        <v>Rs. 154</v>
+        <v>Rs. 165</v>
       </c>
       <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
+        <v>by Garcia Hector</v>
       </c>
       <c r="H4" t="str">
-        <v>https://www.snapdeal.com/product/ikigai/676651730612</v>
+        <v>https://www.snapdeal.com/product/ikigai-english-hardcover-garcia-hector/668184776843</v>
       </c>
       <c r="I4" t="str">
         <v>Yes</v>
@@ -532,16 +523,13 @@
         <v>Yes</v>
       </c>
       <c r="E5" t="str">
-        <v>Rs. 1054</v>
+        <v>Rs. 189</v>
       </c>
       <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <v/>
+        <v>by James Clear</v>
       </c>
       <c r="H5" t="str">
-        <v>https://www.snapdeal.com/product/-combo-of-9-atomic/655885700400</v>
+        <v>https://www.snapdeal.com/product/atomic-habits-english-paperback-clear/651153159151</v>
       </c>
       <c r="I5" t="str">
         <v>Yes</v>
@@ -561,16 +549,13 @@
         <v>Yes</v>
       </c>
       <c r="E6" t="str">
-        <v>Rs. 175</v>
+        <v>Rs. 176</v>
       </c>
       <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <v/>
+        <v>by Thiel with Blake Masters</v>
       </c>
       <c r="H6" t="str">
-        <v>https://www.snapdeal.com/product/zero-to-one-notes-on/637828134948</v>
+        <v>https://www.snapdeal.com/product/zero-to-one-notes-on/632498381661</v>
       </c>
       <c r="I6" t="str">
         <v>Yes</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -450,6 +450,9 @@
       <c r="F2" t="str">
         <v>by Mark Manson</v>
       </c>
+      <c r="G2" t="str">
+        <v>Publisher:Harper Collins</v>
+      </c>
       <c r="H2" t="str">
         <v>https://www.snapdeal.com/product/the-subtle-art-of-not/673256894166</v>
       </c>
@@ -476,6 +479,9 @@
       <c r="F3" t="str">
         <v>by Robert T. Kiyosaki</v>
       </c>
+      <c r="G3" t="str">
+        <v>Publisher:india Book</v>
+      </c>
       <c r="H3" t="str">
         <v>https://www.snapdeal.com/product/rich-dad-poor-dad-english/673494464071</v>
       </c>
@@ -502,6 +508,9 @@
       <c r="F4" t="str">
         <v>by Garcia Hector</v>
       </c>
+      <c r="G4" t="str">
+        <v>Age:10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,10+</v>
+      </c>
       <c r="H4" t="str">
         <v>https://www.snapdeal.com/product/ikigai-english-hardcover-garcia-hector/668184776843</v>
       </c>
@@ -528,6 +537,9 @@
       <c r="F5" t="str">
         <v>by James Clear</v>
       </c>
+      <c r="G5" t="str">
+        <v>Publisher:Cornerstone</v>
+      </c>
       <c r="H5" t="str">
         <v>https://www.snapdeal.com/product/atomic-habits-english-paperback-clear/651153159151</v>
       </c>
@@ -549,13 +561,16 @@
         <v>Yes</v>
       </c>
       <c r="E6" t="str">
-        <v>Rs. 176</v>
+        <v>Rs. 199</v>
       </c>
       <c r="F6" t="str">
         <v>by Thiel with Blake Masters</v>
       </c>
+      <c r="G6" t="str">
+        <v>Publisher:Virgin Books</v>
+      </c>
       <c r="H6" t="str">
-        <v>https://www.snapdeal.com/product/zero-to-one-notes-on/632498381661</v>
+        <v>https://www.snapdeal.com/product/zero-to-one-notes-on/667589959019</v>
       </c>
       <c r="I6" t="str">
         <v>Yes</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,41 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Open source\Puppeteer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE16893-DD63-43ED-B6F3-92BB09DFF135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Book Title</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>Found</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>In Stock</t>
+  </si>
+  <si>
+    <t>The Subtle Art of Not Giving a F</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Rs. 170</t>
+  </si>
+  <si>
+    <t>by Mark Manson</t>
+  </si>
+  <si>
+    <t>Publisher:Harper Collins</t>
+  </si>
+  <si>
+    <t>https://www.snapdeal.com/product/the-subtle-art-of-not/673256894166#bcrumbSearch:9780062641540</t>
+  </si>
+  <si>
+    <t>Rich Dad Poor Dad</t>
+  </si>
+  <si>
+    <t>Rs. 161</t>
+  </si>
+  <si>
+    <t>by Robert T. Kiyosaki</t>
+  </si>
+  <si>
+    <t>Publisher:india Book</t>
+  </si>
+  <si>
+    <t>https://www.snapdeal.com/product/rich-dad-poor-dad-english/673494464071</t>
+  </si>
+  <si>
+    <t>IKIGAI</t>
+  </si>
+  <si>
+    <t>Rs. 165</t>
+  </si>
+  <si>
+    <t>by Garcia Hector</t>
+  </si>
+  <si>
+    <t>Age:10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,10+</t>
+  </si>
+  <si>
+    <t>https://www.snapdeal.com/product/ikigai-english-hardcover-garcia-hector/668184776843</t>
+  </si>
+  <si>
+    <t>Atomic Habits</t>
+  </si>
+  <si>
+    <t>Rs. 189</t>
+  </si>
+  <si>
+    <t>by James Clear</t>
+  </si>
+  <si>
+    <t>Publisher:Cornerstone</t>
+  </si>
+  <si>
+    <t>https://www.snapdeal.com/product/atomic-habits-english-paperback-clear/651153159151</t>
+  </si>
+  <si>
+    <t>Zero to One</t>
+  </si>
+  <si>
+    <t>Rs. 199</t>
+  </si>
+  <si>
+    <t>by Thiel with Blake Masters</t>
+  </si>
+  <si>
+    <t>Publisher:Virgin Books</t>
+  </si>
+  <si>
+    <t>https://www.snapdeal.com/product/zero-to-one-notes-on/667589959019</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +161,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,189 +500,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="20.8984375" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="54" customWidth="1"/>
+    <col min="9" max="9" width="24.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>No</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Book Title</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ISBN</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Found</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Price</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Author</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Publisher</v>
-      </c>
-      <c r="H1" t="str">
-        <v>URL</v>
-      </c>
-      <c r="I1" t="str">
-        <v>In Stock</v>
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>The Subtle Art of Not Giving a F</v>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2">
         <v>9780062641540</v>
       </c>
-      <c r="D2" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Rs. 170</v>
-      </c>
-      <c r="F2" t="str">
-        <v>by Mark Manson</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Publisher:Harper Collins</v>
-      </c>
-      <c r="H2" t="str">
-        <v>https://www.snapdeal.com/product/the-subtle-art-of-not/673256894166</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Yes</v>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Rich Dad Poor Dad</v>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
       <c r="C3">
         <v>9781612680019</v>
       </c>
-      <c r="D3" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Rs. 161</v>
-      </c>
-      <c r="F3" t="str">
-        <v>by Robert T. Kiyosaki</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Publisher:india Book</v>
-      </c>
-      <c r="H3" t="str">
-        <v>https://www.snapdeal.com/product/rich-dad-poor-dad-english/673494464071</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Yes</v>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>IKIGAI</v>
+      <c r="B4" t="s">
+        <v>20</v>
       </c>
       <c r="C4">
         <v>9781786330895</v>
       </c>
-      <c r="D4" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Rs. 165</v>
-      </c>
-      <c r="F4" t="str">
-        <v>by Garcia Hector</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Age:10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,10+</v>
-      </c>
-      <c r="H4" t="str">
-        <v>https://www.snapdeal.com/product/ikigai-english-hardcover-garcia-hector/668184776843</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Yes</v>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>Atomic Habits</v>
+      <c r="B5" t="s">
+        <v>25</v>
       </c>
       <c r="C5">
         <v>9781847941831</v>
       </c>
-      <c r="D5" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Rs. 189</v>
-      </c>
-      <c r="F5" t="str">
-        <v>by James Clear</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Publisher:Cornerstone</v>
-      </c>
-      <c r="H5" t="str">
-        <v>https://www.snapdeal.com/product/atomic-habits-english-paperback-clear/651153159151</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Yes</v>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>Zero to One</v>
+      <c r="B6" t="s">
+        <v>30</v>
       </c>
       <c r="C6">
         <v>9780753555194</v>
       </c>
-      <c r="D6" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Rs. 199</v>
-      </c>
-      <c r="F6" t="str">
-        <v>by Thiel with Blake Masters</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Publisher:Virgin Books</v>
-      </c>
-      <c r="H6" t="str">
-        <v>https://www.snapdeal.com/product/zero-to-one-notes-on/667589959019</v>
-      </c>
-      <c r="I6" t="str">
-        <v>Yes</v>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
+    <ignoredError sqref="A1:I6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>